--- a/data/trans_camb/P62-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P62-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.04334476830122</v>
+        <v>-14.11511341268962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.13649771652609</v>
+        <v>-18.24126440859036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.114676713894394</v>
+        <v>-2.892164980121734</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.524778999836204</v>
+        <v>1.914181710313684</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.239879173849641</v>
+        <v>0.406713353724201</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>11.05500157180197</v>
+        <v>11.48044491792065</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.633563862696383</v>
+        <v>-0.873740922165588</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.797447561981678</v>
+        <v>-3.418589720946106</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.11704441822463</v>
+        <v>8.45506478151178</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7527420407162149</v>
+        <v>0.1765845699277016</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.550906447299617</v>
+        <v>-4.039782565707506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.32160207512932</v>
+        <v>13.19730664548906</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.30313578821074</v>
+        <v>13.67077202744242</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.28621854049678</v>
+        <v>11.68532847073147</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.35521266857918</v>
+        <v>21.3194215265841</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.588371149302757</v>
+        <v>8.747294205869757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.281677446323461</v>
+        <v>5.355659377906574</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.80449015893583</v>
+        <v>18.05929518061376</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2352638299592396</v>
+        <v>-0.2379056324344437</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3200134378668492</v>
+        <v>-0.3055061780725857</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05147886894731304</v>
+        <v>-0.04815541734013026</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08630004322273109</v>
+        <v>0.07664193242100376</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.004333119654034798</v>
+        <v>0.01448262930603721</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4033515002381681</v>
+        <v>0.4329542004798314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01633241615507416</v>
+        <v>-0.01439351245885318</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09848659326684177</v>
+        <v>-0.09161732155760222</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2132932108528312</v>
+        <v>0.2231082933612847</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01461463734922742</v>
+        <v>0.002132020441466057</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.08976016862349387</v>
+        <v>-0.07570619074871271</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2586475211749197</v>
+        <v>0.2566549082888944</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6064370470105365</v>
+        <v>0.6503053643113039</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5243705740885679</v>
+        <v>0.5314088604746329</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9900358804767453</v>
+        <v>1.021319763605145</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2516704456983465</v>
+        <v>0.2639810505812413</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1573220309225832</v>
+        <v>0.1622380841917521</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5417890808574666</v>
+        <v>0.5458512861478222</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-12.25380770802927</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.453649948798376</v>
+        <v>-3.453649948798365</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.980225863141528</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-21.93208920612341</v>
+        <v>-21.34615810067611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-18.52241793270537</v>
+        <v>-18.8021172243499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.4640392000674</v>
+        <v>-10.91662984556879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.18644353621464</v>
+        <v>1.246221170191828</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7797209259380182</v>
+        <v>0.2887851200272539</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.454339695579468</v>
+        <v>6.534480195974737</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.333943086629591</v>
+        <v>-4.599880711345484</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.681072363313654</v>
+        <v>-4.001652754565567</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.585985586123087</v>
+        <v>2.665348506776665</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-9.274514433605411</v>
+        <v>-9.354309134049171</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-6.029724951029681</v>
+        <v>-6.132834609938554</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.770650165247532</v>
+        <v>3.570866576018947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.78732971459333</v>
+        <v>10.66058185323944</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.927910928110077</v>
+        <v>9.802621883468873</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.14798255961031</v>
+        <v>15.63156280334046</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.536099556116182</v>
+        <v>3.390482977910086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.944236410984337</v>
+        <v>3.89058444204942</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.53432730181625</v>
+        <v>10.42584753392284</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2179507958219347</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.06142790655493708</v>
+        <v>-0.06142790655493689</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2731796309404447</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.367082295009223</v>
+        <v>-0.3617477867490425</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3086769476454626</v>
+        <v>-0.3129182970764782</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1944323836339668</v>
+        <v>-0.1832462031144581</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04932647937659548</v>
+        <v>0.05555725708423216</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03209038430616789</v>
+        <v>0.01071876837275677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.267398703341387</v>
+        <v>0.2694377801903471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.118761900597757</v>
+        <v>-0.1250923033169819</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1007966103242822</v>
+        <v>-0.1106410131844541</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.07039948314230038</v>
+        <v>0.07193006920647531</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1772267580728124</v>
+        <v>-0.1779853740286982</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1141064358833106</v>
+        <v>-0.1164658795630617</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06954442960916465</v>
+        <v>0.06681207460535266</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5465449189265101</v>
+        <v>0.5561971489717815</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5075350656938183</v>
+        <v>0.4979184283671851</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8250462544624338</v>
+        <v>0.8158696599990605</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1118967080164576</v>
+        <v>0.1071420188124715</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1250373013790752</v>
+        <v>0.1226525801068435</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3225802817733853</v>
+        <v>0.3219090033462221</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-25.86216084202407</v>
+        <v>-26.11842055579242</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-18.8702420611228</v>
+        <v>-18.27179102235795</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.709303435223438</v>
+        <v>-6.103573246074352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.284926582711888</v>
+        <v>-4.696828666143041</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.278284905346584</v>
+        <v>-4.487681252121485</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.783127116030939</v>
+        <v>4.096682252933334</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-10.43330616741675</v>
+        <v>-10.03462001751269</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.808482658130378</v>
+        <v>-6.677590624408768</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.420122016049022</v>
+        <v>3.572964368439267</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.50769338742327</v>
+        <v>-10.75310258737437</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.544265351150626</v>
+        <v>-2.433161212297023</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.44577302472214</v>
+        <v>11.12587891748751</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.958699241473135</v>
+        <v>6.371597896691664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.829147422136257</v>
+        <v>7.478183566549447</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.47474320431095</v>
+        <v>14.98943546366607</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.6998109122715658</v>
+        <v>-0.952482224936259</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.33076478616695</v>
+        <v>3.274380519371568</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>13.695308232879</v>
+        <v>13.40904767488231</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4206823076782969</v>
+        <v>-0.4183649988734521</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3047106439066201</v>
+        <v>-0.2986515456973705</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1079648147729651</v>
+        <v>-0.09908081723602616</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1901358687361339</v>
+        <v>-0.1661941698767885</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1509590779041815</v>
+        <v>-0.1519531076254843</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1233132926591341</v>
+        <v>0.1462244632543657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2577369015955928</v>
+        <v>-0.2446814640150639</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1661917212106848</v>
+        <v>-0.1655326736282347</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.08874050274720792</v>
+        <v>0.09045230599775445</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1957714854226266</v>
+        <v>-0.1974594411855915</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.06797961993248149</v>
+        <v>-0.04982365921688309</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2006191767698609</v>
+        <v>0.2112314828907182</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2501441834713998</v>
+        <v>0.271812200286387</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.294500399808009</v>
+        <v>0.3268383911373005</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6193593998179707</v>
+        <v>0.6712882520412639</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01891771342733385</v>
+        <v>-0.02423917167841571</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.09652645170419838</v>
+        <v>0.09337865951351734</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3971066926184017</v>
+        <v>0.3830072224334185</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.8238787136265802</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.1550281692602573</v>
+        <v>-0.1550281692602629</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.153590898294384</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.452782948585186</v>
+        <v>-8.793093271404631</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.079332184585625</v>
+        <v>-5.879140290706928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.964897553707456</v>
+        <v>-6.886553389961109</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.225832145075009</v>
+        <v>-1.93143729886876</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.782558236918693</v>
+        <v>3.14540802999307</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.195241525096548</v>
+        <v>7.008099423780605</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.224532923510087</v>
+        <v>-2.194558132673813</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.699108014134764</v>
+        <v>1.977604614159404</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.09672516992921</v>
+        <v>3.78750529410295</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.519760848618186</v>
+        <v>4.429539310900291</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.981029038476218</v>
+        <v>7.502521904422266</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.625101728633079</v>
+        <v>6.60012817420469</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.026636262746317</v>
+        <v>7.888297279079164</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.44457337486275</v>
+        <v>13.5376970401901</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.99643911316691</v>
+        <v>16.67830811509725</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.327788733848861</v>
+        <v>5.791031669794554</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.46709294743879</v>
+        <v>10.47799735312467</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.10967380151359</v>
+        <v>11.73321489899112</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.01665324712519544</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.003133619513840054</v>
+        <v>-0.003133619513840166</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1155238971995988</v>
@@ -1402,7 +1402,7 @@
         <v>0.3097352619913735</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4358540455856297</v>
+        <v>0.4358540455856295</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.05259841645082883</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1602486545665297</v>
+        <v>-0.1669526479404466</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1144924432483948</v>
+        <v>-0.108528920276005</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1311893447708786</v>
+        <v>-0.1297526544894256</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07548159412576827</v>
+        <v>-0.06785738752767081</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08628680956326909</v>
+        <v>0.1050862955749019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2375380787794993</v>
+        <v>0.229144124587898</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06017705305555082</v>
+        <v>-0.05794991922419225</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07336007021138179</v>
+        <v>0.05463495591620905</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1075662431594852</v>
+        <v>0.09820707713974118</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.09817962416403547</v>
+        <v>0.0978332249183342</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1564023759627576</v>
+        <v>0.1660206946672516</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1444031399173348</v>
+        <v>0.1458659387062514</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3211555895772297</v>
+        <v>0.3179872071473485</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5291142683339262</v>
+        <v>0.5438587896369396</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6885895131126817</v>
+        <v>0.6682273484344518</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1882363691743136</v>
+        <v>0.1698564736318251</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3141011661216277</v>
+        <v>0.3146389163825266</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3651674620018618</v>
+        <v>0.3525527243874245</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>1.716372662009247</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.898270801375208</v>
+        <v>8.898270801375219</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-13.81609351277365</v>
+        <v>-14.06158419699383</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.76503192607882</v>
+        <v>-11.37477340905357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.244736130209199</v>
+        <v>-3.163406476370854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.68369144764062</v>
+        <v>1.853541421091355</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.93584930681942</v>
+        <v>2.553715753824259</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.724106113670841</v>
+        <v>9.766652332429585</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.171315363012059</v>
+        <v>-2.245717337791451</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3918920595811891</v>
+        <v>-0.5049235151887937</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.733211911880911</v>
+        <v>6.823157814910322</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.930511136206152</v>
+        <v>-7.130845625379442</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.585571430693498</v>
+        <v>-4.551429028532269</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.327044796932399</v>
+        <v>4.368863273901816</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.982277414729235</v>
+        <v>6.874051181730362</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.046101548182815</v>
+        <v>7.991953612690196</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.69199125186019</v>
+        <v>14.67271255430543</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.107647536016503</v>
+        <v>1.988005855186842</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.043679754892516</v>
+        <v>3.892512093833245</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>10.87916349913714</v>
+        <v>11.21590007510061</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2251458134073246</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4957623214822283</v>
+        <v>0.4957623214822285</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.00108367206800437</v>
@@ -1625,7 +1625,7 @@
         <v>0.04819391244882102</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2498539468959841</v>
+        <v>0.2498539468959844</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.24769870892132</v>
+        <v>-0.2471678079782872</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.207541012415441</v>
+        <v>-0.2017446061175862</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.05784186881272262</v>
+        <v>-0.05577210722363143</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0636618427183239</v>
+        <v>0.07366884768925001</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1157389114571196</v>
+        <v>0.09975886905076385</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3777088452967291</v>
+        <v>0.3732117827873704</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05875224452536956</v>
+        <v>-0.06175843734886349</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.01092582831594613</v>
+        <v>-0.01360115624065132</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.184634413417668</v>
+        <v>0.1855363984327948</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1355371675064916</v>
+        <v>-0.1328181059250789</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08734507117376338</v>
+        <v>-0.08610360998123907</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.08284625849344933</v>
+        <v>0.08322209451155983</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.296715720544915</v>
+        <v>0.2944766894140776</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3442761625493007</v>
+        <v>0.3417557523290339</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6328899067957401</v>
+        <v>0.6257741573093494</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0606236080197254</v>
+        <v>0.05795705916815741</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1187641579028637</v>
+        <v>0.1124216342939077</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3179737320811191</v>
+        <v>0.327235895931056</v>
       </c>
     </row>
     <row r="34">
